--- a/medicine/Enfance/Vincent_Hardy_(auteur)/Vincent_Hardy_(auteur).xlsx
+++ b/medicine/Enfance/Vincent_Hardy_(auteur)/Vincent_Hardy_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Hardy, né le 28 juin 1955 à Usumbura (aujourd'hui Bujumbura), est un auteur et éditeur de bande dessinée belge.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Hardy naît le 28 juin 1955 à Bujumbura. Il étudie les arts plastiques à l'Institut Saint-Luc de Mons[1]. À partir de 1978, il publie dans la revue Spatial de Michel Deligne. Quatre ans plus tard, il fonde les Éditions Nallet-Boirunvert et y publie le premier tome des Insolitudes. À la même époque, il publie Le Courseur et Autres Histoires drôles aux éditions du Miroir[2],[3].
-En 1984, la jeune maison d'édition française Vents d'Ouest réédite les Insolitudes avant de lancer en 1986 la nouvelle création d'Hardy : la série d'aventure humoristique Ashe Barrett[4],[3].
-Saluée notamment pour son travail formel et son humour par Thierry Smolderen[5] et par Thierry Groensteen[6], Ashe Barrett ne connaît que deux albums et reste inachevée. Pour Henri Filippini, Vincent Hardy crée dans Ashe Barrett un « univers déroutant » avec un « graphisme décapant et drôle : monde de folie, de fou rire et de délire graphique »[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Hardy naît le 28 juin 1955 à Bujumbura. Il étudie les arts plastiques à l'Institut Saint-Luc de Mons. À partir de 1978, il publie dans la revue Spatial de Michel Deligne. Quatre ans plus tard, il fonde les Éditions Nallet-Boirunvert et y publie le premier tome des Insolitudes. À la même époque, il publie Le Courseur et Autres Histoires drôles aux éditions du Miroir,.
+En 1984, la jeune maison d'édition française Vents d'Ouest réédite les Insolitudes avant de lancer en 1986 la nouvelle création d'Hardy : la série d'aventure humoristique Ashe Barrett,.
+Saluée notamment pour son travail formel et son humour par Thierry Smolderen et par Thierry Groensteen, Ashe Barrett ne connaît que deux albums et reste inachevée. Pour Henri Filippini, Vincent Hardy crée dans Ashe Barrett un « univers déroutant » avec un « graphisme décapant et drôle : monde de folie, de fou rire et de délire graphique ».
 Après une dernière compilation de récits chez Vents d'Ouest en 1993, Hardy se détourne de la bande dessinée et se consacre à la peinture. Dans la deuxième moitié des années 2000, il revient au livre par le biais de l’illustration de livres pour la jeunesse chez Mijade.
 </t>
         </is>
@@ -547,17 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Le Courseur et Autres Histoires drôles, Éditions du Miroir, 1982, 37 p.. Réédition augmentée en 1985  (ISBN 2-87142-005-X)[8].
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Courseur et Autres Histoires drôles, Éditions du Miroir, 1982, 37 p.. Réédition augmentée en 1985  (ISBN 2-87142-005-X).
 Insolitudes, Vents d'Ouest, mai 1984 (ISBN 2-87096-005-0).
 La Véritable Histoire de Ashe Barrett, Vents d'Ouest :
-Berdouille et Techno, avril 1986, 48 p. (ISBN 2-86967-008-7)[5].
+Berdouille et Techno, avril 1986, 48 p. (ISBN 2-86967-008-7).
 Douze Travaux à fond la caisse, août 1987, 48 p. (ISBN 2-86967-036-2).
-Vincent Hardy, Vents d'Ouest, août 1993 (ISBN 2-86967-245-4).
-Illustration de livres pour enfants
-Laurence Bourguignon, Belfégor et l'Orage, Namur, Mijade, coll. « Petits Mijade », octobre 2006 (ISBN 2-87142-561-2)
+Vincent Hardy, Vents d'Ouest, août 1993 (ISBN 2-86967-245-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Hardy_(auteur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Hardy_(auteur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustration de livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Laurence Bourguignon, Belfégor et l'Orage, Namur, Mijade, coll. « Petits Mijade », octobre 2006 (ISBN 2-87142-561-2)
 Svetlana Petrovic, Ours brun et Ours blanc, Namur, Mijade, coll. « Petits Mijade », septembre 2007, 22 p. (ISBN 978-2-87142-417-8 et 2-87142-417-9)
-Laurence Bourguignon, Pas si fort, Belfégor ! [9], Namur, Mijade, coll. « Albums », octobre 2007, 26 p. (ISBN 978-2-87142-612-7)
+Laurence Bourguignon, Pas si fort, Belfégor ! , Namur, Mijade, coll. « Albums », octobre 2007, 26 p. (ISBN 978-2-87142-612-7)
 Fatima Sharafeddine, Nina et le Chat, Namur, Mijade, coll. « Albums », octobre 2008 (ISBN 978-2-87142-628-8)
 Sylvie Auzary–Luton, Corentin graine de champion, Namur, Mijade, coll. « Albums », novembre 2008 (ISBN 978-2-87142-566-3)
 Nathalie Daoût, Mireille et Elsa, Namur, Mijade, coll. « Albums », août 2009 (ISBN 978-2-87142-665-3)
